--- a/results/mp/logistic/corona/confidence/42/stop-words-topk-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-topk-0.15/avg_0.004_scores.xlsx
@@ -55,28 +55,37 @@
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>heroes</t>
   </si>
   <si>
     <t>thanks</t>
@@ -85,21 +94,12 @@
     <t>thank</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
@@ -109,19 +109,19 @@
     <t>like</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>hope</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
   </si>
   <si>
     <t>share</t>
@@ -496,7 +496,7 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -554,13 +554,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.726027397260274</v>
+        <v>0.7431506849315068</v>
       </c>
       <c r="C3">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D3">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -572,19 +572,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K3">
-        <v>0.9416666666666667</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L3">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="M3">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -604,13 +604,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4126984126984127</v>
+        <v>0.3756613756613756</v>
       </c>
       <c r="C4">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D4">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -622,19 +622,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -654,13 +654,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3352713178294573</v>
+        <v>0.3217054263565892</v>
       </c>
       <c r="C5">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D5">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9130434782608695</v>
+        <v>0.875</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -728,13 +728,13 @@
         <v>16</v>
       </c>
       <c r="K6">
-        <v>0.8839285714285714</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -754,13 +754,13 @@
         <v>17</v>
       </c>
       <c r="K7">
-        <v>0.8328981723237598</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="L7">
-        <v>319</v>
+        <v>87</v>
       </c>
       <c r="M7">
-        <v>319</v>
+        <v>87</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -780,13 +780,13 @@
         <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8055555555555556</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="L8">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="M8">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -806,13 +806,13 @@
         <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8018867924528302</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L9">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="M9">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -832,13 +832,13 @@
         <v>20</v>
       </c>
       <c r="K10">
-        <v>0.7931034482758621</v>
+        <v>0.7989556135770235</v>
       </c>
       <c r="L10">
-        <v>46</v>
+        <v>306</v>
       </c>
       <c r="M10">
-        <v>46</v>
+        <v>306</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -858,13 +858,13 @@
         <v>21</v>
       </c>
       <c r="K11">
-        <v>0.7926829268292683</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L11">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="M11">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -884,13 +884,13 @@
         <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7734375</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L12">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="M12">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -910,13 +910,13 @@
         <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7676056338028169</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L13">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="M13">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -936,13 +936,13 @@
         <v>24</v>
       </c>
       <c r="K14">
-        <v>0.7625</v>
+        <v>0.7560975609756098</v>
       </c>
       <c r="L14">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="M14">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -954,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -965,10 +965,10 @@
         <v>0.75</v>
       </c>
       <c r="L15">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="M15">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -991,10 +991,10 @@
         <v>0.75</v>
       </c>
       <c r="L16">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="M16">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1014,7 +1014,7 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.723404255319149</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L17">
         <v>34</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1040,13 +1040,13 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6976744186046512</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M18">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1066,13 +1066,13 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6507936507936508</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L19">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M19">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1084,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1092,13 +1092,13 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.6264705882352941</v>
+        <v>0.6235294117647059</v>
       </c>
       <c r="L20">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M20">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1118,13 +1118,13 @@
         <v>31</v>
       </c>
       <c r="K21">
-        <v>0.5846153846153846</v>
+        <v>0.58</v>
       </c>
       <c r="L21">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M21">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1144,13 +1144,13 @@
         <v>32</v>
       </c>
       <c r="K22">
-        <v>0.58</v>
+        <v>0.5491525423728814</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>21</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1170,13 +1170,13 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5525423728813559</v>
+        <v>0.5481171548117155</v>
       </c>
       <c r="L23">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="M23">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>132</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1196,13 +1196,13 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5523012552301255</v>
+        <v>0.5425531914893617</v>
       </c>
       <c r="L24">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="M24">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>107</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1222,13 +1222,13 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.5425531914893617</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L25">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="M25">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1248,13 +1248,13 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.5285714285714286</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L26">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M26">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1274,13 +1274,13 @@
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0.4269662921348314</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="L27">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M27">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
